--- a/StructureDefinition-ext-R5-OperationDefinition.par.allowedType.xlsx
+++ b/StructureDefinition-ext-R5-OperationDefinition.par.allowedType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
 *  R5: `OperationDefinition.parameter.allowedType` 0..* `code`
 Following are the generation technical comments:
 Element `OperationDefinition.parameter.allowedType` is part of an existing definition because parent element `OperationDefinition.parameter` requires a component extension (e.g., if this element is used as a content reference).
-Element `OperationDefinition.parameter.allowedType` is mapped to FHIR R4 structure `OperationDefinition`, but has no target element specified.</t>
+Element `OperationDefinition.parameter.allowedType` is will have a context of OperationDefinition.parameter based on following the parent source element upwards and mapping to `OperationDefinition`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -141,7 +141,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:OperationDefinition.parameter</t>
   </si>
   <si>
     <t>ID</t>
